--- a/data_year/zb/就业人员和工资/私营企业就业人员.xlsx
+++ b/data_year/zb/就业人员和工资/私营企业就业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,532 +473,252 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.6</v>
+        <v>3346.7</v>
       </c>
       <c r="C2" t="n">
-        <v>148.4726</v>
+        <v>534.2317</v>
       </c>
       <c r="D2" t="n">
-        <v>1268</v>
+        <v>6071</v>
       </c>
       <c r="E2" t="n">
-        <v>246.8754</v>
+        <v>1259.7841</v>
       </c>
       <c r="F2" t="n">
-        <v>2406.6</v>
+        <v>9417.700000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>176.2</v>
+        <v>845.5158</v>
       </c>
       <c r="H2" t="n">
-        <v>395.348</v>
+        <v>1794.0158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1187.1</v>
+        <v>3441.7</v>
       </c>
       <c r="C3" t="n">
-        <v>162.0573</v>
+        <v>509.6782</v>
       </c>
       <c r="D3" t="n">
-        <v>1527</v>
+        <v>6912</v>
       </c>
       <c r="E3" t="n">
-        <v>298.7775</v>
+        <v>1476.0696</v>
       </c>
       <c r="F3" t="n">
-        <v>2714.1</v>
+        <v>10353.7</v>
       </c>
       <c r="G3" t="n">
-        <v>202.9</v>
+        <v>967.6776</v>
       </c>
       <c r="H3" t="n">
-        <v>460.8348</v>
+        <v>1985.7478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1410.6</v>
+        <v>3739</v>
       </c>
       <c r="C4" t="n">
-        <v>203.5</v>
+        <v>554.0557</v>
       </c>
       <c r="D4" t="n">
-        <v>1999</v>
+        <v>7557</v>
       </c>
       <c r="E4" t="n">
-        <v>419.4</v>
+        <v>1646.0435</v>
       </c>
       <c r="F4" t="n">
-        <v>3409.6</v>
+        <v>11296</v>
       </c>
       <c r="G4" t="n">
-        <v>243.5</v>
+        <v>1085.7169</v>
       </c>
       <c r="H4" t="n">
-        <v>622.8</v>
+        <v>2200.0992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754</v>
+        <v>4279</v>
       </c>
       <c r="C5" t="n">
-        <v>252.8564</v>
+        <v>658.956</v>
       </c>
       <c r="D5" t="n">
-        <v>2545</v>
+        <v>8242</v>
       </c>
       <c r="E5" t="n">
-        <v>519.9758</v>
+        <v>1826.7822</v>
       </c>
       <c r="F5" t="n">
-        <v>4299</v>
+        <v>12521</v>
       </c>
       <c r="G5" t="n">
-        <v>300.5524</v>
+        <v>1253.9</v>
       </c>
       <c r="H5" t="n">
-        <v>772.8321999999999</v>
+        <v>2485.7382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023.5</v>
+        <v>4533</v>
       </c>
       <c r="C6" t="n">
-        <v>338.2202</v>
+        <v>733.1402</v>
       </c>
       <c r="D6" t="n">
-        <v>2994</v>
+        <v>9857</v>
       </c>
       <c r="E6" t="n">
-        <v>610.4086</v>
+        <v>2229.9405</v>
       </c>
       <c r="F6" t="n">
-        <v>5017.5</v>
+        <v>14390</v>
       </c>
       <c r="G6" t="n">
-        <v>365.067</v>
+        <v>1546.3661</v>
       </c>
       <c r="H6" t="n">
-        <v>948.6288</v>
+        <v>2963.0807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>388.9522</v>
-      </c>
+        <v>5215</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>3458.4308</v>
-      </c>
-      <c r="E7" t="n">
-        <v>720.9822</v>
-      </c>
+        <v>11180</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5823.6</v>
+        <v>16395</v>
       </c>
       <c r="G7" t="n">
-        <v>430.0916</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1109.9344</v>
-      </c>
+        <v>1908.2267</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2632</v>
-      </c>
-      <c r="C8" t="n">
-        <v>418.72769</v>
-      </c>
+        <v>5914</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3954</v>
-      </c>
-      <c r="E8" t="n">
-        <v>852.9236100000001</v>
-      </c>
+        <v>12083</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>6586</v>
+        <v>17997</v>
       </c>
       <c r="G8" t="n">
-        <v>498.0774</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1271.6513</v>
-      </c>
+        <v>2309.1963</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2672</v>
-      </c>
-      <c r="C9" t="n">
-        <v>416.4777</v>
-      </c>
+        <v>6554</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>4581</v>
-      </c>
-      <c r="E9" t="n">
-        <v>980.044</v>
-      </c>
+        <v>13327</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>7253</v>
+        <v>19881.7</v>
       </c>
       <c r="G9" t="n">
-        <v>551.312</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1396.5217</v>
-      </c>
+        <v>2726.2813</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2780</v>
-      </c>
-      <c r="C10" t="n">
-        <v>440.6786</v>
-      </c>
+        <v>7424</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>5124</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1066.6825</v>
-      </c>
+        <v>13952</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>7904</v>
+        <v>21375.3526</v>
       </c>
       <c r="G10" t="n">
-        <v>657.4171</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1507.3611</v>
-      </c>
+        <v>3143.2625</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3062.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>485.6273</v>
-      </c>
+        <v>8266.5417</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>5544</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1164.985</v>
-      </c>
+        <v>14566.6494</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>8606.6</v>
+        <v>22833.1911</v>
       </c>
       <c r="G11" t="n">
-        <v>740.1539</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1650.6123</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3346.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>534.2317</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6071</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1259.7841</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9417.700000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>845.5158</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1794.0158</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3441.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>509.6782</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6912</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1476.0696</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10353.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>967.6776</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1985.7478</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3739</v>
-      </c>
-      <c r="C14" t="n">
-        <v>554.0557</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7557</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1646.0435</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11296</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1085.7169</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2200.0992</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4279</v>
-      </c>
-      <c r="C15" t="n">
-        <v>658.956</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8242</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1826.7822</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12521</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1253.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2485.7382</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4533</v>
-      </c>
-      <c r="C16" t="n">
-        <v>733.1402</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9857</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2229.9405</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14390</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1546.3661</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2963.0807</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5215</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>11180</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>16395</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1908.2267</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5914</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>12083</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>17997</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2309.1963</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6554</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>13327</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>19881.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2726.2813</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7424</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>13952</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>21375.3526</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3143.2625</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8266.5417</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>14566.6494</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>22833.1911</v>
-      </c>
-      <c r="G21" t="n">
         <v>3516.3989</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
